--- a/Examples/Rationality AI to Zombies.xlsx
+++ b/Examples/Rationality AI to Zombies.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="18075" windowHeight="5895"/>
@@ -11,7 +11,7 @@
     <sheet name="Sequences" sheetId="2" r:id="rId2"/>
     <sheet name="Books" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2731,9 +2731,6 @@
   </si>
   <si>
     <t>The Twelve Virtues of Rationality</t>
-  </si>
-  <si>
-    <t>http://www.yudkowsky.net/rational/virtues</t>
   </si>
   <si>
     <t>Becoming Stronger</t>
@@ -3268,12 +3265,15 @@
 &lt;li&gt;[The void] (the nameless virtue) – “More than anything, you must think of carrying your map through to reflecting the territory.”&lt;/li&gt;
 &lt;/ol&gt;</t>
   </si>
+  <si>
+    <t>http://www.yudkowsky.net/rational/virtues/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3895,7 +3895,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3930,7 +3929,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4106,20 +4104,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F341" sqref="F341"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G339" sqref="G339"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4136,7 +4134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4153,7 +4151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
@@ -4166,7 +4164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
@@ -4179,7 +4177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" t="s">
@@ -4192,7 +4190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" t="s">
@@ -4205,7 +4203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" t="s">
@@ -4218,7 +4216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" t="s">
@@ -4231,7 +4229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" t="s">
@@ -4244,7 +4242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" t="s">
@@ -4257,7 +4255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" t="s">
@@ -4270,7 +4268,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>37</v>
@@ -4285,7 +4283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" t="s">
@@ -4298,7 +4296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s">
@@ -4311,7 +4309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" t="s">
@@ -4324,7 +4322,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" t="s">
@@ -4337,7 +4335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" t="s">
@@ -4350,7 +4348,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s">
@@ -4363,7 +4361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" t="s">
@@ -4376,7 +4374,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>62</v>
@@ -4391,7 +4389,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" t="s">
@@ -4404,7 +4402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" t="s">
@@ -4417,7 +4415,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" t="s">
@@ -4430,7 +4428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" t="s">
@@ -4443,7 +4441,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" t="s">
@@ -4456,7 +4454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" t="s">
@@ -4469,7 +4467,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" t="s">
@@ -4482,7 +4480,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" t="s">
@@ -4495,7 +4493,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" t="s">
@@ -4508,7 +4506,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
@@ -4521,7 +4519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>96</v>
@@ -4536,7 +4534,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
@@ -4549,7 +4547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" t="s">
@@ -4562,7 +4560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" t="s">
@@ -4575,7 +4573,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
@@ -4588,7 +4586,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" t="s">
@@ -4601,7 +4599,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" t="s">
@@ -4614,7 +4612,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" t="s">
@@ -4627,7 +4625,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" t="s">
@@ -4640,7 +4638,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" t="s">
@@ -4653,7 +4651,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" t="s">
@@ -4666,7 +4664,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" t="s">
@@ -4679,7 +4677,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" t="s">
@@ -4692,7 +4690,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" t="s">
@@ -4705,7 +4703,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" t="s">
@@ -4718,7 +4716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" t="s">
@@ -4731,7 +4729,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>148</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" t="s">
@@ -4761,7 +4759,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" t="s">
@@ -4774,7 +4772,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" t="s">
@@ -4787,7 +4785,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" t="s">
@@ -4800,7 +4798,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" t="s">
@@ -4813,7 +4811,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
@@ -4826,7 +4824,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" t="s">
@@ -4839,7 +4837,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" t="s">
@@ -4852,7 +4850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" t="s">
@@ -4865,7 +4863,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" t="s">
@@ -4878,7 +4876,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>183</v>
@@ -4893,7 +4891,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
@@ -4906,7 +4904,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
@@ -4919,7 +4917,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
@@ -4932,7 +4930,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" t="s">
@@ -4945,7 +4943,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" t="s">
@@ -4958,7 +4956,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
@@ -4971,7 +4969,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
@@ -4984,7 +4982,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
@@ -4997,7 +4995,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
@@ -5010,7 +5008,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>214</v>
@@ -5025,7 +5023,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
@@ -5038,7 +5036,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" t="s">
@@ -5051,7 +5049,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" t="s">
@@ -5064,7 +5062,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" t="s">
@@ -5077,7 +5075,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" t="s">
@@ -5090,7 +5088,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" t="s">
@@ -5103,7 +5101,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" t="s">
@@ -5116,7 +5114,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" t="s">
@@ -5129,7 +5127,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" t="s">
@@ -5142,7 +5140,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" t="s">
@@ -5155,7 +5153,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" t="s">
@@ -5165,7 +5163,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" t="s">
@@ -5175,7 +5173,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" t="s">
@@ -5188,7 +5186,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>255</v>
@@ -5203,7 +5201,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" t="s">
@@ -5216,7 +5214,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" t="s">
@@ -5229,7 +5227,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" t="s">
@@ -5242,7 +5240,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" t="s">
@@ -5255,7 +5253,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" t="s">
@@ -5268,7 +5266,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>274</v>
@@ -5283,7 +5281,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" t="s">
@@ -5296,7 +5294,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" t="s">
@@ -5309,7 +5307,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
@@ -5322,7 +5320,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" t="s">
@@ -5335,7 +5333,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" t="s">
@@ -5348,7 +5346,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" t="s">
@@ -5361,7 +5359,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" t="s">
@@ -5374,7 +5372,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" t="s">
@@ -5387,7 +5385,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" t="s">
@@ -5400,7 +5398,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" t="s">
@@ -5413,7 +5411,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" t="s">
@@ -5426,7 +5424,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" t="s">
@@ -5439,7 +5437,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
         <v>314</v>
@@ -5454,7 +5452,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" t="s">
@@ -5467,7 +5465,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" t="s">
@@ -5480,7 +5478,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" t="s">
@@ -5493,7 +5491,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" t="s">
@@ -5506,7 +5504,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" t="s">
@@ -5519,7 +5517,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" t="s">
@@ -5532,7 +5530,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" t="s">
@@ -5545,7 +5543,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" t="s">
@@ -5558,7 +5556,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" t="s">
@@ -5571,7 +5569,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" t="s">
@@ -5584,7 +5582,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" t="s">
@@ -5597,7 +5595,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" t="s">
@@ -5610,7 +5608,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" t="s">
@@ -5623,7 +5621,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" t="s">
@@ -5636,7 +5634,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" t="s">
@@ -5649,7 +5647,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" t="s">
@@ -5662,7 +5660,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" t="s">
@@ -5675,7 +5673,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" t="s">
@@ -5688,7 +5686,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" t="s">
@@ -5701,7 +5699,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" t="s">
@@ -5714,7 +5712,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="4"/>
       <c r="B122" s="4" t="s">
         <v>378</v>
@@ -5729,7 +5727,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" t="s">
@@ -5742,7 +5740,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" t="s">
@@ -5755,7 +5753,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" t="s">
@@ -5768,7 +5766,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" t="s">
@@ -5781,7 +5779,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" t="s">
@@ -5794,7 +5792,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" t="s">
@@ -5807,7 +5805,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" t="s">
@@ -5820,7 +5818,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" t="s">
@@ -5830,7 +5828,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s">
@@ -5843,7 +5841,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
         <v>408</v>
       </c>
@@ -5860,7 +5858,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" t="s">
@@ -5873,7 +5871,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" t="s">
@@ -5886,7 +5884,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" t="s">
@@ -5899,7 +5897,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" t="s">
@@ -5912,7 +5910,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" t="s">
@@ -5925,7 +5923,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" t="s">
@@ -5938,7 +5936,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" t="s">
@@ -5951,7 +5949,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" t="s">
@@ -5964,7 +5962,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" t="s">
@@ -5977,7 +5975,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" t="s">
@@ -5990,7 +5988,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" t="s">
@@ -6003,7 +6001,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
         <v>446</v>
@@ -6018,7 +6016,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" t="s">
@@ -6031,7 +6029,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" t="s">
@@ -6044,7 +6042,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" t="s">
@@ -6057,7 +6055,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" t="s">
@@ -6070,7 +6068,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" t="s">
@@ -6083,7 +6081,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" t="s">
@@ -6096,7 +6094,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" t="s">
@@ -6109,7 +6107,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" t="s">
@@ -6122,7 +6120,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" t="s">
@@ -6135,7 +6133,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="4"/>
       <c r="B154" s="4" t="s">
         <v>477</v>
@@ -6150,7 +6148,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" t="s">
@@ -6163,7 +6161,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" t="s">
@@ -6176,7 +6174,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" t="s">
@@ -6189,7 +6187,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" t="s">
@@ -6202,7 +6200,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" t="s">
@@ -6215,7 +6213,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" t="s">
@@ -6228,7 +6226,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" t="s">
@@ -6241,7 +6239,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" t="s">
@@ -6254,7 +6252,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" t="s">
@@ -6267,7 +6265,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" t="s">
@@ -6280,7 +6278,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" t="s">
@@ -6293,7 +6291,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" t="s">
@@ -6306,7 +6304,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" t="s">
@@ -6319,7 +6317,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" t="s">
@@ -6332,7 +6330,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" t="s">
@@ -6345,7 +6343,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" t="s">
@@ -6358,7 +6356,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" t="s">
@@ -6371,7 +6369,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" t="s">
@@ -6384,7 +6382,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" t="s">
@@ -6397,7 +6395,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" t="s">
@@ -6410,7 +6408,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" t="s">
@@ -6423,7 +6421,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" t="s">
@@ -6436,7 +6434,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" t="s">
@@ -6449,7 +6447,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" t="s">
@@ -6462,7 +6460,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" t="s">
@@ -6475,7 +6473,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" t="s">
@@ -6488,7 +6486,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" t="s">
@@ -6501,7 +6499,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15" customHeight="1">
       <c r="A182" s="4" t="s">
         <v>562</v>
       </c>
@@ -6518,7 +6516,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" t="s">
@@ -6531,7 +6529,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" t="s">
@@ -6544,7 +6542,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" t="s">
@@ -6557,7 +6555,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" t="s">
@@ -6570,7 +6568,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" t="s">
@@ -6583,7 +6581,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" t="s">
@@ -6596,7 +6594,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" t="s">
@@ -6609,7 +6607,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="4"/>
       <c r="B190" s="4" t="s">
         <v>588</v>
@@ -6624,7 +6622,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" t="s">
@@ -6637,7 +6635,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" t="s">
@@ -6650,7 +6648,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" t="s">
@@ -6663,7 +6661,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" t="s">
@@ -6676,7 +6674,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" t="s">
@@ -6689,7 +6687,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" t="s">
@@ -6702,7 +6700,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" t="s">
@@ -6715,7 +6713,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" t="s">
@@ -6725,7 +6723,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" t="s">
@@ -6738,7 +6736,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" t="s">
@@ -6751,7 +6749,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" t="s">
@@ -6764,7 +6762,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" t="s">
@@ -6777,7 +6775,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="4"/>
       <c r="B203" s="4" t="s">
         <v>627</v>
@@ -6792,7 +6790,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" t="s">
@@ -6805,7 +6803,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" t="s">
@@ -6818,7 +6816,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" t="s">
@@ -6831,7 +6829,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" t="s">
@@ -6844,7 +6842,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" t="s">
@@ -6857,7 +6855,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" t="s">
@@ -6870,7 +6868,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" t="s">
@@ -6883,7 +6881,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" t="s">
@@ -6896,7 +6894,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" t="s">
@@ -6909,7 +6907,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" t="s">
@@ -6922,7 +6920,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" t="s">
@@ -6935,7 +6933,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="s">
         <v>663</v>
@@ -6950,7 +6948,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" t="s">
@@ -6963,7 +6961,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" t="s">
@@ -6976,7 +6974,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" t="s">
@@ -6989,7 +6987,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" t="s">
@@ -7002,7 +7000,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" t="s">
@@ -7015,7 +7013,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" t="s">
@@ -7028,7 +7026,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" t="s">
@@ -7041,7 +7039,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" t="s">
@@ -7054,7 +7052,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" t="s">
@@ -7067,7 +7065,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" t="s">
@@ -7080,7 +7078,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" t="s">
@@ -7093,7 +7091,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" t="s">
@@ -7106,7 +7104,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" t="s">
@@ -7119,7 +7117,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" t="s">
@@ -7132,7 +7130,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="4"/>
       <c r="B230" s="4" t="s">
         <v>709</v>
@@ -7147,7 +7145,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" t="s">
@@ -7160,7 +7158,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" t="s">
@@ -7173,7 +7171,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" t="s">
@@ -7186,7 +7184,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" t="s">
@@ -7199,7 +7197,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" t="s">
@@ -7212,7 +7210,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" t="s">
@@ -7225,7 +7223,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" t="s">
@@ -7235,7 +7233,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" t="s">
@@ -7248,7 +7246,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" t="s">
@@ -7261,7 +7259,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" t="s">
@@ -7274,7 +7272,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" t="s">
@@ -7287,7 +7285,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" t="s">
@@ -7300,7 +7298,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" t="s">
@@ -7313,7 +7311,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="4"/>
       <c r="B244" s="4" t="s">
         <v>751</v>
@@ -7328,7 +7326,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" t="s">
@@ -7341,7 +7339,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" t="s">
@@ -7354,7 +7352,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" t="s">
@@ -7367,7 +7365,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" t="s">
@@ -7380,7 +7378,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" t="s">
@@ -7393,7 +7391,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" t="s">
@@ -7406,7 +7404,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" t="s">
@@ -7419,7 +7417,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" t="s">
@@ -7432,7 +7430,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" t="s">
@@ -7445,7 +7443,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" t="s">
@@ -7458,7 +7456,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" t="s">
@@ -7471,7 +7469,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" t="s">
@@ -7484,7 +7482,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" t="s">
@@ -7497,7 +7495,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15" customHeight="1">
       <c r="A258" s="4" t="s">
         <v>797</v>
       </c>
@@ -7514,7 +7512,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" t="s">
@@ -7527,7 +7525,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" t="s">
@@ -7540,7 +7538,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" t="s">
@@ -7553,7 +7551,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" t="s">
@@ -7566,7 +7564,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" t="s">
@@ -7579,7 +7577,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" t="s">
@@ -7592,7 +7590,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="4"/>
       <c r="B265" s="4" t="s">
         <v>820</v>
@@ -7607,7 +7605,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" t="s">
@@ -7620,7 +7618,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" t="s">
@@ -7633,7 +7631,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" t="s">
@@ -7646,7 +7644,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" t="s">
@@ -7659,7 +7657,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" t="s">
@@ -7672,7 +7670,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" t="s">
@@ -7685,7 +7683,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" t="s">
@@ -7698,7 +7696,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" t="s">
@@ -7711,7 +7709,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" t="s">
@@ -7724,7 +7722,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" t="s">
@@ -7737,7 +7735,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" t="s">
@@ -7750,7 +7748,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" t="s">
@@ -7763,7 +7761,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" t="s">
@@ -7776,7 +7774,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" t="s">
@@ -7789,7 +7787,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" t="s">
@@ -7802,7 +7800,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" t="s">
@@ -7815,7 +7813,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="4"/>
       <c r="B282" s="4" t="s">
         <v>872</v>
@@ -7830,7 +7828,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" t="s">
@@ -7843,7 +7841,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" t="s">
@@ -7856,7 +7854,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" t="s">
@@ -7869,7 +7867,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" t="s">
@@ -7882,7 +7880,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" t="s">
@@ -7895,7 +7893,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" t="s">
@@ -7905,7 +7903,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" t="s">
@@ -7915,7 +7913,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" t="s">
@@ -7928,7 +7926,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" t="s">
@@ -7941,7 +7939,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" t="s">
@@ -7954,558 +7952,558 @@
         <v>903</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B293" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="C293" t="s">
         <v>907</v>
       </c>
-      <c r="C293" t="s">
+      <c r="D293" t="s">
         <v>908</v>
       </c>
-      <c r="D293" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:5">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" t="s">
+        <v>909</v>
+      </c>
+      <c r="D294" t="s">
         <v>910</v>
       </c>
-      <c r="D294" t="s">
+      <c r="E294" t="s">
         <v>911</v>
       </c>
-      <c r="E294" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:5">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" t="s">
+        <v>912</v>
+      </c>
+      <c r="D295" t="s">
         <v>913</v>
       </c>
-      <c r="D295" t="s">
+      <c r="E295" t="s">
         <v>914</v>
       </c>
-      <c r="E295" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:5">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" t="s">
+        <v>915</v>
+      </c>
+      <c r="D296" t="s">
         <v>916</v>
       </c>
-      <c r="D296" t="s">
+      <c r="E296" t="s">
         <v>917</v>
       </c>
-      <c r="E296" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:5">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" t="s">
+        <v>918</v>
+      </c>
+      <c r="D297" t="s">
         <v>919</v>
       </c>
-      <c r="D297" t="s">
+      <c r="E297" t="s">
         <v>920</v>
       </c>
-      <c r="E297" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:5">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" t="s">
+        <v>921</v>
+      </c>
+      <c r="D298" t="s">
         <v>922</v>
       </c>
-      <c r="D298" t="s">
+      <c r="E298" t="s">
         <v>923</v>
       </c>
-      <c r="E298" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:5">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" t="s">
+        <v>924</v>
+      </c>
+      <c r="D299" t="s">
         <v>925</v>
       </c>
-      <c r="D299" t="s">
+      <c r="E299" t="s">
         <v>926</v>
       </c>
-      <c r="E299" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:5">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" t="s">
+        <v>927</v>
+      </c>
+      <c r="D300" t="s">
         <v>928</v>
       </c>
-      <c r="D300" t="s">
+      <c r="E300" t="s">
         <v>929</v>
       </c>
-      <c r="E300" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:5">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" t="s">
+        <v>930</v>
+      </c>
+      <c r="D301" t="s">
         <v>931</v>
       </c>
-      <c r="D301" t="s">
+      <c r="E301" t="s">
         <v>932</v>
       </c>
-      <c r="E301" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:5">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" t="s">
+        <v>933</v>
+      </c>
+      <c r="D302" t="s">
         <v>934</v>
       </c>
-      <c r="D302" t="s">
+      <c r="E302" t="s">
         <v>935</v>
       </c>
-      <c r="E302" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:5">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" t="s">
+        <v>936</v>
+      </c>
+      <c r="D303" t="s">
         <v>937</v>
       </c>
-      <c r="D303" t="s">
+      <c r="E303" t="s">
         <v>938</v>
       </c>
-      <c r="E303" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:5">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" t="s">
+        <v>939</v>
+      </c>
+      <c r="D304" t="s">
         <v>940</v>
       </c>
-      <c r="D304" t="s">
+      <c r="E304" t="s">
         <v>941</v>
       </c>
-      <c r="E304" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:5">
       <c r="A305" s="4"/>
       <c r="B305" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C305" t="s">
         <v>943</v>
       </c>
-      <c r="C305" t="s">
+      <c r="D305" t="s">
         <v>944</v>
       </c>
-      <c r="D305" t="s">
+      <c r="E305" t="s">
         <v>945</v>
       </c>
-      <c r="E305" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:5">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" t="s">
+        <v>946</v>
+      </c>
+      <c r="D306" t="s">
         <v>947</v>
       </c>
-      <c r="D306" t="s">
+      <c r="E306" t="s">
         <v>948</v>
       </c>
-      <c r="E306" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:5">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" t="s">
+        <v>949</v>
+      </c>
+      <c r="D307" t="s">
         <v>950</v>
       </c>
-      <c r="D307" t="s">
+      <c r="E307" t="s">
         <v>951</v>
       </c>
-      <c r="E307" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:5">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" t="s">
+        <v>952</v>
+      </c>
+      <c r="D308" t="s">
         <v>953</v>
       </c>
-      <c r="D308" t="s">
+      <c r="E308" t="s">
         <v>954</v>
       </c>
-      <c r="E308" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" t="s">
+        <v>955</v>
+      </c>
+      <c r="D309" t="s">
         <v>956</v>
       </c>
-      <c r="D309" t="s">
+      <c r="E309" t="s">
         <v>957</v>
       </c>
-      <c r="E309" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:5">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" t="s">
+        <v>958</v>
+      </c>
+      <c r="D310" t="s">
         <v>959</v>
       </c>
-      <c r="D310" t="s">
+      <c r="E310" t="s">
         <v>960</v>
       </c>
-      <c r="E310" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" t="s">
+        <v>961</v>
+      </c>
+      <c r="D311" t="s">
         <v>962</v>
       </c>
-      <c r="D311" t="s">
+      <c r="E311" t="s">
         <v>963</v>
       </c>
-      <c r="E311" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" t="s">
+        <v>964</v>
+      </c>
+      <c r="D312" t="s">
         <v>965</v>
       </c>
-      <c r="D312" t="s">
+      <c r="E312" t="s">
         <v>966</v>
       </c>
-      <c r="E312" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:5">
       <c r="A313" s="4"/>
       <c r="B313" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C313" t="s">
         <v>968</v>
       </c>
-      <c r="C313" t="s">
+      <c r="D313" t="s">
         <v>969</v>
       </c>
-      <c r="D313" t="s">
+      <c r="E313" t="s">
         <v>970</v>
       </c>
-      <c r="E313" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:5">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" t="s">
+        <v>971</v>
+      </c>
+      <c r="D314" t="s">
         <v>972</v>
       </c>
-      <c r="D314" t="s">
+      <c r="E314" t="s">
         <v>973</v>
       </c>
-      <c r="E314" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:5">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" t="s">
+        <v>974</v>
+      </c>
+      <c r="D315" t="s">
         <v>975</v>
       </c>
-      <c r="D315" t="s">
+      <c r="E315" t="s">
         <v>976</v>
       </c>
-      <c r="E315" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:5">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" t="s">
+        <v>977</v>
+      </c>
+      <c r="D316" t="s">
         <v>978</v>
       </c>
-      <c r="D316" t="s">
+      <c r="E316" t="s">
         <v>979</v>
       </c>
-      <c r="E316" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:5">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" t="s">
+        <v>980</v>
+      </c>
+      <c r="D317" t="s">
         <v>981</v>
       </c>
-      <c r="D317" t="s">
+      <c r="E317" t="s">
         <v>982</v>
       </c>
-      <c r="E317" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:5">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" t="s">
+        <v>983</v>
+      </c>
+      <c r="D318" t="s">
         <v>984</v>
       </c>
-      <c r="D318" t="s">
+      <c r="E318" t="s">
         <v>985</v>
       </c>
-      <c r="E318" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" t="s">
+        <v>986</v>
+      </c>
+      <c r="D319" t="s">
         <v>987</v>
       </c>
-      <c r="D319" t="s">
+      <c r="E319" t="s">
         <v>988</v>
       </c>
-      <c r="E319" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:5">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" t="s">
+        <v>989</v>
+      </c>
+      <c r="D320" t="s">
         <v>990</v>
       </c>
-      <c r="D320" t="s">
+      <c r="E320" t="s">
         <v>991</v>
       </c>
-      <c r="E320" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:5">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" t="s">
+        <v>992</v>
+      </c>
+      <c r="D321" t="s">
         <v>993</v>
       </c>
-      <c r="D321" t="s">
+      <c r="E321" t="s">
         <v>994</v>
       </c>
-      <c r="E321" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:5">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" t="s">
+        <v>995</v>
+      </c>
+      <c r="D322" t="s">
         <v>996</v>
       </c>
-      <c r="D322" t="s">
+      <c r="E322" t="s">
         <v>997</v>
       </c>
-      <c r="E322" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:5">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" t="s">
+        <v>998</v>
+      </c>
+      <c r="D323" t="s">
         <v>999</v>
       </c>
-      <c r="D323" t="s">
+      <c r="E323" t="s">
         <v>1000</v>
       </c>
-      <c r="E323" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:5">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D324" t="s">
         <v>1002</v>
       </c>
-      <c r="D324" t="s">
+      <c r="E324" t="s">
         <v>1003</v>
       </c>
-      <c r="E324" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D325" t="s">
         <v>1005</v>
       </c>
-      <c r="D325" t="s">
+      <c r="E325" t="s">
         <v>1006</v>
       </c>
-      <c r="E325" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D326" t="s">
         <v>1008</v>
       </c>
-      <c r="D326" t="s">
+      <c r="E326" t="s">
         <v>1009</v>
       </c>
-      <c r="E326" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D327" t="s">
         <v>1011</v>
       </c>
-      <c r="D327" t="s">
+      <c r="E327" t="s">
         <v>1012</v>
       </c>
-      <c r="E327" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:5">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D328" t="s">
         <v>1014</v>
       </c>
-      <c r="D328" t="s">
+      <c r="E328" t="s">
         <v>1015</v>
       </c>
-      <c r="E328" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:5">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D329" t="s">
         <v>1017</v>
       </c>
-      <c r="D329" t="s">
+      <c r="E329" t="s">
         <v>1018</v>
       </c>
-      <c r="E329" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:5">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D330" t="s">
         <v>1020</v>
       </c>
-      <c r="D330" t="s">
+      <c r="E330" t="s">
         <v>1021</v>
       </c>
-      <c r="E330" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:5">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D331" t="s">
         <v>1023</v>
       </c>
-      <c r="D331" t="s">
+      <c r="E331" t="s">
         <v>1024</v>
       </c>
-      <c r="E331" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:5">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D332" t="s">
         <v>1026</v>
       </c>
-      <c r="D332" t="s">
+      <c r="E332" t="s">
         <v>1027</v>
       </c>
-      <c r="E332" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:5">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D333" t="s">
         <v>1029</v>
       </c>
-      <c r="D333" t="s">
+      <c r="E333" t="s">
         <v>1030</v>
       </c>
-      <c r="E333" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:5">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D334" t="s">
         <v>1032</v>
       </c>
-      <c r="D334" t="s">
+      <c r="E334" t="s">
         <v>1033</v>
       </c>
-      <c r="E334" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:5">
       <c r="B335" s="1" t="s">
         <v>145</v>
       </c>
@@ -8516,7 +8514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="B336" s="1" t="s">
         <v>145</v>
       </c>
@@ -8530,7 +8528,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="337" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:5" ht="18.75" customHeight="1">
       <c r="B337" s="1" t="s">
         <v>145</v>
       </c>
@@ -8538,14 +8536,30 @@
         <v>904</v>
       </c>
       <c r="D337" t="s">
-        <v>905</v>
+        <v>1067</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B313:B334"/>
+    <mergeCell ref="A293:A334"/>
+    <mergeCell ref="A132:A181"/>
+    <mergeCell ref="B230:B243"/>
+    <mergeCell ref="B244:B257"/>
+    <mergeCell ref="B258:B264"/>
+    <mergeCell ref="B265:B281"/>
+    <mergeCell ref="B282:B292"/>
+    <mergeCell ref="B293:B304"/>
+    <mergeCell ref="B144:B153"/>
+    <mergeCell ref="B154:B181"/>
+    <mergeCell ref="B101:B121"/>
+    <mergeCell ref="B122:B131"/>
+    <mergeCell ref="B132:B143"/>
+    <mergeCell ref="A47:A131"/>
+    <mergeCell ref="B305:B312"/>
     <mergeCell ref="B58:B67"/>
     <mergeCell ref="A258:A292"/>
     <mergeCell ref="A182:A257"/>
@@ -8562,41 +8576,25 @@
     <mergeCell ref="B68:B81"/>
     <mergeCell ref="B82:B87"/>
     <mergeCell ref="B88:B100"/>
-    <mergeCell ref="B101:B121"/>
-    <mergeCell ref="B122:B131"/>
-    <mergeCell ref="B132:B143"/>
-    <mergeCell ref="A47:A131"/>
-    <mergeCell ref="B305:B312"/>
-    <mergeCell ref="B313:B334"/>
-    <mergeCell ref="A293:A334"/>
-    <mergeCell ref="A132:A181"/>
-    <mergeCell ref="B230:B243"/>
-    <mergeCell ref="B244:B257"/>
-    <mergeCell ref="B258:B264"/>
-    <mergeCell ref="B265:B281"/>
-    <mergeCell ref="B282:B292"/>
-    <mergeCell ref="B293:B304"/>
-    <mergeCell ref="B144:B153"/>
-    <mergeCell ref="B154:B181"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8604,212 +8602,212 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B10" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B11" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>409</v>
       </c>
       <c r="B13" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>446</v>
       </c>
       <c r="B14" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B15" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>563</v>
       </c>
       <c r="B16" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>588</v>
       </c>
       <c r="B17" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>627</v>
       </c>
       <c r="B18" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>663</v>
       </c>
       <c r="B19" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>709</v>
       </c>
       <c r="B20" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>751</v>
       </c>
       <c r="B21" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>798</v>
       </c>
       <c r="B22" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>820</v>
       </c>
       <c r="B23" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>872</v>
       </c>
       <c r="B24" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B25" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:2" ht="15" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B26" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:2" ht="15" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1059</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1060</v>
       </c>
     </row>
   </sheetData>
@@ -8818,19 +8816,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8838,52 +8836,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>408</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>562</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>797</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1066</v>
       </c>
     </row>
   </sheetData>
